--- a/activity tracker.xlsx
+++ b/activity tracker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Prep phase" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t xml:space="preserve">Activity </t>
   </si>
@@ -36,6 +36,24 @@
   </si>
   <si>
     <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Images are to be manually annotated</t>
+  </si>
+  <si>
+    <t>Using labelimg tool manually annotate and fetch xmin,ymin of img.</t>
+  </si>
+  <si>
+    <t>training the model</t>
+  </si>
+  <si>
+    <t>thrain the ml model with annoted images</t>
+  </si>
+  <si>
+    <t>create inference graph</t>
+  </si>
+  <si>
+    <t>save the trained model and use it to predict o/p</t>
   </si>
 </sst>
 </file>
@@ -353,16 +371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="43.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="2" max="2" width="59.109375" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -375,6 +393,14 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -415,10 +441,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,6 +465,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -446,15 +480,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="43.77734375" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
   </cols>
@@ -470,6 +504,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
